--- a/general/info/mailList/project8_funmail_list.xlsx
+++ b/general/info/mailList/project8_funmail_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b1018194\Desktop\project8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b1018194\Desktop\project8\general\info\mailList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26618BF7-09C2-4B37-B3A1-198ADE3B50E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ADE4D4-7EAE-4B25-899E-632236CF1C34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="7440" windowHeight="7650" xr2:uid="{5581D17F-3D60-4FAA-8295-7DC7AC733AFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5581D17F-3D60-4FAA-8295-7DC7AC733AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>fun_2020_project8メンバー名</t>
     <rPh sb="21" eb="22">
@@ -149,6 +149,13 @@
   <si>
     <t>b1018225@fun.ac.jp</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fukuhara T.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b1018247@fun.ac.jp</t>
   </si>
 </sst>
 </file>
@@ -528,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B96A75-8A3C-446E-8C8C-942354225E36}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -650,6 +657,14 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
